--- a/Examples/example1/deliverables/GENEX_CR1/assets/GENEX_CR1_chr.xlsx
+++ b/Examples/example1/deliverables/GENEX_CR1/assets/GENEX_CR1_chr.xlsx
@@ -28,16 +28,16 @@
     <t>sample1</t>
   </si>
   <si>
+    <t>chr3</t>
+  </si>
+  <si>
+    <t>chr4</t>
+  </si>
+  <si>
+    <t>sample2</t>
+  </si>
+  <si>
     <t>chr1</t>
-  </si>
-  <si>
-    <t>chr2</t>
-  </si>
-  <si>
-    <t>chr3</t>
-  </si>
-  <si>
-    <t>sample2</t>
   </si>
   <si>
     <t>sample3</t>
@@ -400,7 +400,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>134</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -411,51 +411,51 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>98999</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>98531</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>382423</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
       <c r="C7">
-        <v>92690</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -466,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>6203</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -474,10 +474,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>94040</v>
+        <v>411005</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -485,10 +485,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>1478</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -496,10 +496,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -507,10 +507,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>85490</v>
+        <v>450691</v>
       </c>
     </row>
   </sheetData>
